--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mena Melad Fanous Isaac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف مصطفى احمد محمود عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mostafa Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>2250007</x:t>
@@ -344,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1375,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6792207176</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1392,38 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.6673608449</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Tamim Amr Nabil Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد شريف سامى محمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ziad sherief sami</x:t>
   </x:si>
   <x:si>
     <x:t>1240319</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -854,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.3744909375</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45912.6286368866</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6286368866</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.6673608449</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>1240036</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -749,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4683091782</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45909.4683091782</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4196144329</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45909.4196144329</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6286368866</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45912.6286368866</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240001</x:t>
   </x:si>
   <x:si>
@@ -67,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>2250008</x:t>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -644,7 +662,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.480625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.550625000000004" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -726,7 +744,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.7610832176</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -758,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45921.9377711806</x:v>
+        <x:v>45907.7610832176</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -790,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4683091782</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45909.4683091782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4196144329</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45909.4196144329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4551204861</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45914.5417465278</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45909.4551204861</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6286368866</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45912.6286368866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6673608449</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45908.4173496528</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.6673608449</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1210110</x:t>
@@ -353,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1256,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45912.6286368866</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6286368866</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6673608449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1433,38 +1424,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.6673608449</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -96,6 +96,15 @@
     <x:t>Tamim Amr Nabil Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمود عبد العال عمر عبد العال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZYAD MAHMOUD</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240319</x:t>
   </x:si>
   <x:si>
@@ -148,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد طارق سعد عبدالحميد البرهامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Tarek Saad Abdelhamid Elborhamy</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -959,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45927.4244154282</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6228945255</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4254247685</x:v>
+        <x:v>45909.6228945255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4698017708</x:v>
+        <x:v>45908.4254247685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4698017708</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5417465278</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35489.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35489.xlsx
@@ -219,7 +219,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>2250007</x:t>
